--- a/Resources/clean1.xlsx
+++ b/Resources/clean1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="65">
   <si>
     <t>Vehicle Body Type</t>
   </si>
@@ -25,25 +25,13 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2DR</t>
+    <t>2DSD</t>
   </si>
   <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>4DR</t>
-  </si>
-  <si>
-    <t>5D</t>
-  </si>
-  <si>
-    <t>5H</t>
+    <t>4DSD</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>APUR</t>
   </si>
   <si>
     <t>BOAT</t>
@@ -55,28 +43,7 @@
     <t>BUS</t>
   </si>
   <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>CHER</t>
-  </si>
-  <si>
-    <t>CNVT</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
     <t>CONV</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CW</t>
   </si>
   <si>
     <t>DELV</t>
@@ -88,16 +55,10 @@
     <t>FLAT</t>
   </si>
   <si>
-    <t>FODO</t>
-  </si>
-  <si>
     <t>FOUR</t>
   </si>
   <si>
     <t>HATC</t>
-  </si>
-  <si>
-    <t>HB</t>
   </si>
   <si>
     <t>HRIN</t>
@@ -112,12 +73,6 @@
     <t>LIM</t>
   </si>
   <si>
-    <t>LIMO</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
     <t>MCY</t>
   </si>
   <si>
@@ -130,9 +85,6 @@
     <t>MOTO</t>
   </si>
   <si>
-    <t>MP</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -140,18 +92,6 @@
   </si>
   <si>
     <t>PICK</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>PKUP</t>
-  </si>
-  <si>
-    <t>PU</t>
-  </si>
-  <si>
-    <t>PV</t>
   </si>
   <si>
     <t>REF</t>
@@ -175,12 +115,6 @@
     <t>SDN</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SEDA</t>
-  </si>
-  <si>
     <t>SEDN</t>
   </si>
   <si>
@@ -196,19 +130,7 @@
     <t>STAK</t>
   </si>
   <si>
-    <t>STAR</t>
-  </si>
-  <si>
-    <t>SU</t>
-  </si>
-  <si>
-    <t>SUB</t>
-  </si>
-  <si>
     <t>SUBN</t>
-  </si>
-  <si>
-    <t>SUBU</t>
   </si>
   <si>
     <t>SUV</t>
@@ -217,13 +139,7 @@
     <t>SUW</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
     <t>SW</t>
-  </si>
-  <si>
-    <t>SWLE</t>
   </si>
   <si>
     <t>SWT</t>
@@ -239,9 +155,6 @@
   </si>
   <si>
     <t>TK</t>
-  </si>
-  <si>
-    <t>TKLE</t>
   </si>
   <si>
     <t>TOW</t>
@@ -265,9 +178,6 @@
     <t>TRC</t>
   </si>
   <si>
-    <t>TRK</t>
-  </si>
-  <si>
     <t>TRL</t>
   </si>
   <si>
@@ -277,13 +187,7 @@
     <t>TRUC</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>TWOD</t>
-  </si>
-  <si>
-    <t>UT</t>
   </si>
   <si>
     <t>UTIL</t>
@@ -292,16 +196,7 @@
     <t>UTLT</t>
   </si>
   <si>
-    <t>VA</t>
-  </si>
-  <si>
     <t>VAN</t>
-  </si>
-  <si>
-    <t>VEH-</t>
-  </si>
-  <si>
-    <t>VN</t>
   </si>
   <si>
     <t>WAG</t>
@@ -311,12 +206,6 @@
   </si>
   <si>
     <t>WDOO</t>
-  </si>
-  <si>
-    <t>WG</t>
-  </si>
-  <si>
-    <t>WRAN</t>
   </si>
   <si>
     <t>ZL</t>
@@ -677,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C625"/>
+  <dimension ref="A1:C543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -713,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -834,7 +723,7 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -974,337 +863,337 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>265</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29">
-        <v>774</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>121</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>455</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>131</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39">
-        <v>478</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>1383</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>3029</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47">
-        <v>527</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48">
-        <v>980</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C50">
-        <v>366</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51">
-        <v>192</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1312,123 +1201,123 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>62</v>
+      </c>
+      <c r="C58">
         <v>5</v>
-      </c>
-      <c r="B58">
-        <v>61</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C61">
-        <v>47</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C62">
-        <v>340</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63">
-        <v>573</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C67">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1436,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="B69">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1447,10 +1336,10 @@
         <v>6</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1458,40 +1347,40 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1499,186 +1388,186 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75">
         <v>7</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76">
         <v>9</v>
       </c>
-      <c r="B76">
-        <v>36</v>
-      </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B85">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B87">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B88">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B89">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B90">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -1686,87 +1575,87 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B92">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B93">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B94">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <v>36</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B96">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B97">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B99">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1774,54 +1663,54 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B102">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B104">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1829,329 +1718,329 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B105">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B106">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B107">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B108">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B109">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B110">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B111">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112">
         <v>17</v>
       </c>
-      <c r="B112">
-        <v>46</v>
-      </c>
       <c r="C112">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B113">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B114">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B115">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B116">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B118">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C118">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B119">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123">
+        <v>40</v>
+      </c>
+      <c r="C123">
         <v>21</v>
-      </c>
-      <c r="B123">
-        <v>8</v>
-      </c>
-      <c r="C123">
-        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C125">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C127">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C131">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C133">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B134">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -2159,21 +2048,21 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B135">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B136">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -2181,164 +2070,164 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B137">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C137">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B138">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C138">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B139">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C139">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B140">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C140">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B141">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B142">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B143">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B144">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>161</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B145">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C145">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B146">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C146">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B147">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B148">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C148">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B149">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B150">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B151">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2346,43 +2235,43 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B152">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C152">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B153">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B154">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C154">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B155">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2390,10 +2279,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B156">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C156">
         <v>4</v>
@@ -2401,43 +2290,43 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B157">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158">
         <v>21</v>
       </c>
-      <c r="B158">
-        <v>84</v>
-      </c>
       <c r="C158">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B159">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2445,32 +2334,32 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B162">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C162">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B163">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2478,54 +2367,54 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B164">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B166">
         <v>14</v>
       </c>
       <c r="C166">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B167">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B168">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2533,10 +2422,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B169">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -2544,21 +2433,21 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B170">
         <v>40</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B171">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2566,10 +2455,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B172">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2577,10 +2466,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B173">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -2588,43 +2477,43 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B174">
         <v>14</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B175">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B176">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C176">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B177">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2632,10 +2521,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B178">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2643,21 +2532,21 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B179">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B180">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -2665,10 +2554,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B181">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2676,43 +2565,43 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B182">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B183">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B184">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B185">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -2720,43 +2609,43 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B186">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B187">
         <v>21</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B188">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B189">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C189">
         <v>2</v>
@@ -2764,10 +2653,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B190">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -2775,98 +2664,98 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B191">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B192">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B193">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B194">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B195">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B196">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B197">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B198">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B199">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -2874,98 +2763,98 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B200">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B201">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B202">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B203">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B204">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B205">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C206">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B207">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C207">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B208">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -2973,95 +2862,95 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B209">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B210">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B211">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B212">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C212">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B213">
         <v>40</v>
       </c>
       <c r="C213">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B214">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B215">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B216">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C216">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B217">
         <v>50</v>
@@ -3072,175 +2961,175 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B218">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B219">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C219">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B220">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C221">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B222">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C222">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B223">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C223">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B224">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B225">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C225">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B226">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C226">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B227">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C227">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B228">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B229">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C229">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B230">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C230">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B231">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C231">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B232">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B233">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -3248,109 +3137,109 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B234">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C234">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B235">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C235">
-        <v>165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B236">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C236">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B237">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C237">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B238">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C238">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B239">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C239">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B240">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C240">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B241">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B242">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B243">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -3358,241 +3247,241 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B244">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B245">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B246">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B247">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B248">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C248">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B249">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C249">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B250">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C250">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B251">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C251">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B252">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B253">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B254">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B255">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C255">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B256">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C256">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B257">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B258">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B259">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B261">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B262">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C262">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B263">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B264">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B265">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -3600,10 +3489,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B266">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -3611,10 +3500,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B267">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -3622,21 +3511,21 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B268">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C268">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B269">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -3644,307 +3533,307 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B270">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C270">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B271">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B272">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B273">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C273">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274">
+        <v>19</v>
+      </c>
+      <c r="C274">
         <v>47</v>
-      </c>
-      <c r="B274">
-        <v>20</v>
-      </c>
-      <c r="C274">
-        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B275">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C275">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B276">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>343</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B277">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C277">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B278">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B279">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C279">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B280">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C280">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B281">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C281">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B282">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C282">
-        <v>31</v>
+        <v>138</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B283">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C283">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B284">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C284">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B285">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C285">
-        <v>4</v>
+        <v>116</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B286">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C286">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B287">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B288">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B289">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B290">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C290">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B291">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C291">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B292">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C292">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B293">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C293">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B294">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B295">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C295">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B296">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B297">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -3952,21 +3841,21 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B298">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B299">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -3974,21 +3863,21 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B300">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B301">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C301">
         <v>3</v>
@@ -3996,65 +3885,65 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B302">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C302">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B303">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C303">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B304">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B305">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C305">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C306">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B307">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -4062,395 +3951,395 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B308">
         <v>14</v>
       </c>
       <c r="C308">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B309">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C309">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B310">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C310">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B311">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C311">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B312">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C312">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B313">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C313">
-        <v>353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B314">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C314">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B315">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C315">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B316">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C316">
-        <v>3</v>
+        <v>188</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B317">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C317">
-        <v>77</v>
+        <v>740</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B318">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C318">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B319">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B320">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C320">
-        <v>148</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B321">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C321">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B322">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B323">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C323">
-        <v>123</v>
+        <v>506</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B324">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C324">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B325">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C325">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B326">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C326">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B327">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C327">
-        <v>3</v>
+        <v>198</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B328">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C328">
-        <v>3</v>
+        <v>623</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B329">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C329">
-        <v>23</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B330">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C330">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B331">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C331">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B332">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C332">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B333">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C333">
-        <v>38</v>
+        <v>138</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B334">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B335">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>781</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B336">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C336">
-        <v>3</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B337">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B338">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C338">
-        <v>73</v>
+        <v>491</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B339">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="C339">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B340">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B341">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C341">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B342">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>380</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B343">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -4458,54 +4347,54 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B344">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B345">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B346">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B347">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
+        <v>38</v>
+      </c>
+      <c r="B348">
         <v>56</v>
-      </c>
-      <c r="B348">
-        <v>36</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -4513,549 +4402,549 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B349">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B350">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B351">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B352">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B353">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C353">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B354">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B355">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B356">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C356">
-        <v>1</v>
+        <v>376</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B357">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>693</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B358">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C358">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B359">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C359">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B360">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B362">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C362">
-        <v>188</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B363">
+        <v>78</v>
+      </c>
+      <c r="C363">
         <v>7</v>
-      </c>
-      <c r="C363">
-        <v>740</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B364">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B365">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C365">
-        <v>115</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B366">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C366">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B367">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C367">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B368">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C368">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B369">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C369">
-        <v>511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B370">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C370">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B371">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C371">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B372">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C372">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B373">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C373">
-        <v>203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B374">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C374">
-        <v>624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B375">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C375">
-        <v>1877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B376">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C376">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B377">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C377">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B378">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C378">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B379">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C379">
-        <v>139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B380">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C380">
-        <v>3268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B381">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C381">
-        <v>781</v>
+        <v>9</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B382">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C382">
-        <v>1308</v>
+        <v>59</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B383">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C383">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B384">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C384">
-        <v>498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B385">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C385">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B386">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C386">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B387">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C387">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B388">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C388">
-        <v>382</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B389">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B390">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C390">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B391">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C391">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B392">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C392">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B393">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C393">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B394">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C394">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B395">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C395">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B396">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C396">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B397">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C397">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B398">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C398">
         <v>4</v>
@@ -5063,142 +4952,142 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B399">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C399">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B400">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C400">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B401">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C401">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B402">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C402">
-        <v>376</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B403">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C403">
-        <v>693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B404">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C404">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B405">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B406">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C406">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B407">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C407">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B408">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B409">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C409">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B410">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B411">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="C411">
         <v>3</v>
@@ -5206,43 +5095,43 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B412">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C412">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B413">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="C413">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B414">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="C414">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B415">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -5250,10 +5139,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B416">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -5261,76 +5150,76 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B417">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B418">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B419">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B420">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C420">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B421">
+        <v>48</v>
+      </c>
+      <c r="C421">
         <v>5</v>
-      </c>
-      <c r="C421">
-        <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B422">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C422">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B423">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -5338,43 +5227,43 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B424">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C424">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B425">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C425">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B426">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B427">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -5382,32 +5271,32 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B428">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B429">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B430">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -5415,10 +5304,10 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B431">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -5426,10 +5315,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B432">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -5437,10 +5326,10 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B433">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -5448,10 +5337,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B434">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -5459,109 +5348,109 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B435">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C435">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B436">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C436">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B437">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C437">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B438">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B439">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C439">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B440">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C440">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B441">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C441">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B442">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C442">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B443">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C443">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B444">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C444">
         <v>11</v>
@@ -5569,120 +5458,120 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B445">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C445">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B446">
         <v>23</v>
       </c>
       <c r="C446">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B447">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B448">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C448">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B449">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C449">
-        <v>86</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B450">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C450">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B451">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C451">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B452">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C452">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B453">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C453">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B454">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C454">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B455">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -5690,21 +5579,21 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B456">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B457">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -5712,10 +5601,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B458">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C458">
         <v>2</v>
@@ -5723,10 +5612,10 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B459">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C459">
         <v>2</v>
@@ -5734,10 +5623,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B460">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C460">
         <v>1</v>
@@ -5745,21 +5634,21 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B461">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C461">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B462">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -5767,32 +5656,32 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B463">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B464">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B465">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -5800,65 +5689,65 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B466">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C466">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B467">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C467">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B468">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B469">
         <v>14</v>
       </c>
       <c r="C469">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B470">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C470">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B471">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -5866,131 +5755,131 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B472">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B473">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C473">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B474">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C474">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B475">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C475">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B476">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C476">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B477">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C477">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B478">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C478">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B479">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C479">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B480">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C480">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B481">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C481">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B482">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C482">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B483">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -5998,32 +5887,32 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B484">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C484">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B485">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B486">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C486">
         <v>2</v>
@@ -6031,21 +5920,21 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B487">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C487">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B488">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -6053,10 +5942,10 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B489">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -6064,10 +5953,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B490">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -6075,164 +5964,164 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B491">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C491">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B492">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C492">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B493">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C493">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B494">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C494">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B495">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C495">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B496">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C496">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B497">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="C497">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B498">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C498">
-        <v>1</v>
+        <v>388</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B499">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B500">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C500">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B501">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C501">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B502">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C502">
-        <v>1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B503">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C503">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B504">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>181</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B505">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -6240,109 +6129,109 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B506">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C506">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B507">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C507">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B508">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C508">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B509">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C509">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B510">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C510">
-        <v>11</v>
+        <v>195</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B511">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C511">
-        <v>4</v>
+        <v>223</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B512">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C512">
-        <v>2</v>
+        <v>347</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B513">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C513">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B514">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C514">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B515">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -6350,109 +6239,109 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B516">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B517">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B518">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C518">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B519">
         <v>46</v>
       </c>
       <c r="C519">
-        <v>2</v>
+        <v>280</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B520">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C520">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B521">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C521">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B522">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B523">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C523">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B524">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C524">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B525">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -6460,21 +6349,21 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B526">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B527">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -6482,1079 +6371,177 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B528">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C528">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B529">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C529">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B530">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C530">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B531">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C531">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B532">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B533">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C533">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B534">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C534">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B535">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C535">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B536">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C536">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B537">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C537">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B538">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C538">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B539">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C539">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B540">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C540">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B541">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C541">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B542">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C542">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B543">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C543">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3">
-      <c r="A544" t="s">
-        <v>90</v>
-      </c>
-      <c r="B544">
-        <v>19</v>
-      </c>
-      <c r="C544">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3">
-      <c r="A545" t="s">
-        <v>90</v>
-      </c>
-      <c r="B545">
-        <v>20</v>
-      </c>
-      <c r="C545">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3">
-      <c r="A546" t="s">
-        <v>90</v>
-      </c>
-      <c r="B546">
-        <v>21</v>
-      </c>
-      <c r="C546">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3">
-      <c r="A547" t="s">
-        <v>90</v>
-      </c>
-      <c r="B547">
-        <v>36</v>
-      </c>
-      <c r="C547">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3">
-      <c r="A548" t="s">
-        <v>90</v>
-      </c>
-      <c r="B548">
-        <v>37</v>
-      </c>
-      <c r="C548">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3">
-      <c r="A549" t="s">
-        <v>90</v>
-      </c>
-      <c r="B549">
-        <v>38</v>
-      </c>
-      <c r="C549">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3">
-      <c r="A550" t="s">
-        <v>90</v>
-      </c>
-      <c r="B550">
-        <v>40</v>
-      </c>
-      <c r="C550">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3">
-      <c r="A551" t="s">
-        <v>90</v>
-      </c>
-      <c r="B551">
-        <v>42</v>
-      </c>
-      <c r="C551">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3">
-      <c r="A552" t="s">
-        <v>90</v>
-      </c>
-      <c r="B552">
-        <v>46</v>
-      </c>
-      <c r="C552">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3">
-      <c r="A553" t="s">
-        <v>90</v>
-      </c>
-      <c r="B553">
-        <v>47</v>
-      </c>
-      <c r="C553">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3">
-      <c r="A554" t="s">
-        <v>90</v>
-      </c>
-      <c r="B554">
-        <v>48</v>
-      </c>
-      <c r="C554">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3">
-      <c r="A555" t="s">
-        <v>90</v>
-      </c>
-      <c r="B555">
-        <v>69</v>
-      </c>
-      <c r="C555">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3">
-      <c r="A556" t="s">
-        <v>90</v>
-      </c>
-      <c r="B556">
-        <v>70</v>
-      </c>
-      <c r="C556">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3">
-      <c r="A557" t="s">
-        <v>90</v>
-      </c>
-      <c r="B557">
-        <v>71</v>
-      </c>
-      <c r="C557">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3">
-      <c r="A558" t="s">
-        <v>90</v>
-      </c>
-      <c r="B558">
-        <v>78</v>
-      </c>
-      <c r="C558">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3">
-      <c r="A559" t="s">
-        <v>90</v>
-      </c>
-      <c r="B559">
-        <v>82</v>
-      </c>
-      <c r="C559">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3">
-      <c r="A560" t="s">
-        <v>90</v>
-      </c>
-      <c r="B560">
-        <v>85</v>
-      </c>
-      <c r="C560">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3">
-      <c r="A561" t="s">
-        <v>91</v>
-      </c>
-      <c r="B561">
-        <v>14</v>
-      </c>
-      <c r="C561">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3">
-      <c r="A562" t="s">
-        <v>92</v>
-      </c>
-      <c r="B562">
-        <v>36</v>
-      </c>
-      <c r="C562">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3">
-      <c r="A563" t="s">
-        <v>93</v>
-      </c>
-      <c r="B563">
-        <v>4</v>
-      </c>
-      <c r="C563">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3">
-      <c r="A564" t="s">
-        <v>93</v>
-      </c>
-      <c r="B564">
-        <v>5</v>
-      </c>
-      <c r="C564">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3">
-      <c r="A565" t="s">
-        <v>93</v>
-      </c>
-      <c r="B565">
-        <v>7</v>
-      </c>
-      <c r="C565">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3">
-      <c r="A566" t="s">
-        <v>93</v>
-      </c>
-      <c r="B566">
-        <v>8</v>
-      </c>
-      <c r="C566">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3">
-      <c r="A567" t="s">
-        <v>93</v>
-      </c>
-      <c r="B567">
-        <v>9</v>
-      </c>
-      <c r="C567">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3">
-      <c r="A568" t="s">
-        <v>93</v>
-      </c>
-      <c r="B568">
-        <v>10</v>
-      </c>
-      <c r="C568">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3">
-      <c r="A569" t="s">
-        <v>93</v>
-      </c>
-      <c r="B569">
-        <v>11</v>
-      </c>
-      <c r="C569">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3">
-      <c r="A570" t="s">
-        <v>93</v>
-      </c>
-      <c r="B570">
-        <v>13</v>
-      </c>
-      <c r="C570">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3">
-      <c r="A571" t="s">
-        <v>93</v>
-      </c>
-      <c r="B571">
-        <v>14</v>
-      </c>
-      <c r="C571">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3">
-      <c r="A572" t="s">
-        <v>93</v>
-      </c>
-      <c r="B572">
-        <v>16</v>
-      </c>
-      <c r="C572">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3">
-      <c r="A573" t="s">
-        <v>93</v>
-      </c>
-      <c r="B573">
-        <v>17</v>
-      </c>
-      <c r="C573">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3">
-      <c r="A574" t="s">
-        <v>93</v>
-      </c>
-      <c r="B574">
-        <v>18</v>
-      </c>
-      <c r="C574">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3">
-      <c r="A575" t="s">
-        <v>93</v>
-      </c>
-      <c r="B575">
-        <v>19</v>
-      </c>
-      <c r="C575">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3">
-      <c r="A576" t="s">
-        <v>93</v>
-      </c>
-      <c r="B576">
-        <v>20</v>
-      </c>
-      <c r="C576">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3">
-      <c r="A577" t="s">
-        <v>93</v>
-      </c>
-      <c r="B577">
-        <v>21</v>
-      </c>
-      <c r="C577">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3">
-      <c r="A578" t="s">
-        <v>93</v>
-      </c>
-      <c r="B578">
-        <v>23</v>
-      </c>
-      <c r="C578">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3">
-      <c r="A579" t="s">
-        <v>93</v>
-      </c>
-      <c r="B579">
-        <v>24</v>
-      </c>
-      <c r="C579">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3">
-      <c r="A580" t="s">
-        <v>93</v>
-      </c>
-      <c r="B580">
-        <v>26</v>
-      </c>
-      <c r="C580">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3">
-      <c r="A581" t="s">
-        <v>93</v>
-      </c>
-      <c r="B581">
-        <v>31</v>
-      </c>
-      <c r="C581">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3">
-      <c r="A582" t="s">
-        <v>93</v>
-      </c>
-      <c r="B582">
-        <v>34</v>
-      </c>
-      <c r="C582">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3">
-      <c r="A583" t="s">
-        <v>93</v>
-      </c>
-      <c r="B583">
-        <v>36</v>
-      </c>
-      <c r="C583">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3">
-      <c r="A584" t="s">
-        <v>93</v>
-      </c>
-      <c r="B584">
-        <v>37</v>
-      </c>
-      <c r="C584">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3">
-      <c r="A585" t="s">
-        <v>93</v>
-      </c>
-      <c r="B585">
-        <v>38</v>
-      </c>
-      <c r="C585">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3">
-      <c r="A586" t="s">
-        <v>93</v>
-      </c>
-      <c r="B586">
-        <v>39</v>
-      </c>
-      <c r="C586">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3">
-      <c r="A587" t="s">
-        <v>93</v>
-      </c>
-      <c r="B587">
-        <v>40</v>
-      </c>
-      <c r="C587">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3">
-      <c r="A588" t="s">
-        <v>93</v>
-      </c>
-      <c r="B588">
-        <v>41</v>
-      </c>
-      <c r="C588">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3">
-      <c r="A589" t="s">
-        <v>93</v>
-      </c>
-      <c r="B589">
-        <v>42</v>
-      </c>
-      <c r="C589">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3">
-      <c r="A590" t="s">
-        <v>93</v>
-      </c>
-      <c r="B590">
-        <v>43</v>
-      </c>
-      <c r="C590">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3">
-      <c r="A591" t="s">
-        <v>93</v>
-      </c>
-      <c r="B591">
-        <v>45</v>
-      </c>
-      <c r="C591">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3">
-      <c r="A592" t="s">
-        <v>93</v>
-      </c>
-      <c r="B592">
-        <v>46</v>
-      </c>
-      <c r="C592">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3">
-      <c r="A593" t="s">
-        <v>93</v>
-      </c>
-      <c r="B593">
-        <v>47</v>
-      </c>
-      <c r="C593">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3">
-      <c r="A594" t="s">
-        <v>93</v>
-      </c>
-      <c r="B594">
-        <v>48</v>
-      </c>
-      <c r="C594">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3">
-      <c r="A595" t="s">
-        <v>93</v>
-      </c>
-      <c r="B595">
-        <v>50</v>
-      </c>
-      <c r="C595">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3">
-      <c r="A596" t="s">
-        <v>93</v>
-      </c>
-      <c r="B596">
-        <v>51</v>
-      </c>
-      <c r="C596">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3">
-      <c r="A597" t="s">
-        <v>93</v>
-      </c>
-      <c r="B597">
-        <v>53</v>
-      </c>
-      <c r="C597">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3">
-      <c r="A598" t="s">
-        <v>93</v>
-      </c>
-      <c r="B598">
-        <v>60</v>
-      </c>
-      <c r="C598">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3">
-      <c r="A599" t="s">
-        <v>93</v>
-      </c>
-      <c r="B599">
-        <v>61</v>
-      </c>
-      <c r="C599">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3">
-      <c r="A600" t="s">
-        <v>93</v>
-      </c>
-      <c r="B600">
-        <v>64</v>
-      </c>
-      <c r="C600">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3">
-      <c r="A601" t="s">
-        <v>93</v>
-      </c>
-      <c r="B601">
-        <v>68</v>
-      </c>
-      <c r="C601">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3">
-      <c r="A602" t="s">
-        <v>93</v>
-      </c>
-      <c r="B602">
-        <v>69</v>
-      </c>
-      <c r="C602">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3">
-      <c r="A603" t="s">
-        <v>93</v>
-      </c>
-      <c r="B603">
-        <v>70</v>
-      </c>
-      <c r="C603">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3">
-      <c r="A604" t="s">
-        <v>93</v>
-      </c>
-      <c r="B604">
-        <v>71</v>
-      </c>
-      <c r="C604">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3">
-      <c r="A605" t="s">
-        <v>93</v>
-      </c>
-      <c r="B605">
-        <v>72</v>
-      </c>
-      <c r="C605">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3">
-      <c r="A606" t="s">
-        <v>93</v>
-      </c>
-      <c r="B606">
-        <v>74</v>
-      </c>
-      <c r="C606">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3">
-      <c r="A607" t="s">
-        <v>93</v>
-      </c>
-      <c r="B607">
-        <v>78</v>
-      </c>
-      <c r="C607">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3">
-      <c r="A608" t="s">
-        <v>93</v>
-      </c>
-      <c r="B608">
-        <v>82</v>
-      </c>
-      <c r="C608">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3">
-      <c r="A609" t="s">
-        <v>93</v>
-      </c>
-      <c r="B609">
-        <v>83</v>
-      </c>
-      <c r="C609">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3">
-      <c r="A610" t="s">
-        <v>93</v>
-      </c>
-      <c r="B610">
-        <v>84</v>
-      </c>
-      <c r="C610">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3">
-      <c r="A611" t="s">
-        <v>93</v>
-      </c>
-      <c r="B611">
-        <v>85</v>
-      </c>
-      <c r="C611">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3">
-      <c r="A612" t="s">
-        <v>93</v>
-      </c>
-      <c r="B612">
-        <v>98</v>
-      </c>
-      <c r="C612">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3">
-      <c r="A613" t="s">
-        <v>94</v>
-      </c>
-      <c r="B613">
-        <v>7</v>
-      </c>
-      <c r="C613">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3">
-      <c r="A614" t="s">
-        <v>94</v>
-      </c>
-      <c r="B614">
-        <v>36</v>
-      </c>
-      <c r="C614">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3">
-      <c r="A615" t="s">
-        <v>95</v>
-      </c>
-      <c r="B615">
-        <v>5</v>
-      </c>
-      <c r="C615">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3">
-      <c r="A616" t="s">
-        <v>95</v>
-      </c>
-      <c r="B616">
-        <v>7</v>
-      </c>
-      <c r="C616">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3">
-      <c r="A617" t="s">
-        <v>95</v>
-      </c>
-      <c r="B617">
-        <v>36</v>
-      </c>
-      <c r="C617">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3">
-      <c r="A618" t="s">
-        <v>96</v>
-      </c>
-      <c r="B618">
-        <v>36</v>
-      </c>
-      <c r="C618">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3">
-      <c r="A619" t="s">
-        <v>97</v>
-      </c>
-      <c r="B619">
-        <v>5</v>
-      </c>
-      <c r="C619">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3">
-      <c r="A620" t="s">
-        <v>97</v>
-      </c>
-      <c r="B620">
-        <v>7</v>
-      </c>
-      <c r="C620">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3">
-      <c r="A621" t="s">
-        <v>97</v>
-      </c>
-      <c r="B621">
-        <v>36</v>
-      </c>
-      <c r="C621">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3">
-      <c r="A622" t="s">
-        <v>98</v>
-      </c>
-      <c r="B622">
-        <v>62</v>
-      </c>
-      <c r="C622">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3">
-      <c r="A623" t="s">
-        <v>99</v>
-      </c>
-      <c r="B623">
-        <v>36</v>
-      </c>
-      <c r="C623">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3">
-      <c r="A624" t="s">
-        <v>100</v>
-      </c>
-      <c r="B624">
-        <v>5</v>
-      </c>
-      <c r="C624">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3">
-      <c r="A625" t="s">
-        <v>101</v>
-      </c>
-      <c r="B625">
-        <v>46</v>
-      </c>
-      <c r="C625">
         <v>1</v>
       </c>
     </row>
